--- a/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
+++ b/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacdw\Documents\Spring-2022\EngineeringDesign\Engineering Design f21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA5FB49-F252-4AF9-A136-CAC446CD5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4D3FB-CA24-42D0-A248-191F0A046DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="525" windowWidth="32400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2670,7 @@
         <v>44564</v>
       </c>
       <c r="C14" s="51">
-        <v>44624</v>
+        <v>44648</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>15</v>
@@ -2873,8 +2873,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="53">
-        <f>C14</f>
-        <v>44624</v>
+        <v>44610</v>
       </c>
       <c r="C17" s="51">
         <f>C9</f>
@@ -2944,7 +2943,7 @@
       </c>
       <c r="B18" s="53">
         <f>B17</f>
-        <v>44624</v>
+        <v>44610</v>
       </c>
       <c r="C18" s="51">
         <v>44631</v>

--- a/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
+++ b/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacdw\Documents\Spring-2022\EngineeringDesign\Engineering Design f21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4D3FB-CA24-42D0-A248-191F0A046DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9968D0E-EBA6-45BA-9129-EBA93757FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="525" windowWidth="32400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2808,7 +2808,7 @@
         <v>44593</v>
       </c>
       <c r="C16" s="51">
-        <v>44620</v>
+        <v>44631</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>15</v>

--- a/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
+++ b/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacdw\Documents\Spring-2022\EngineeringDesign\Engineering Design f21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9968D0E-EBA6-45BA-9129-EBA93757FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87693E2-84BE-4460-9B0A-435EF9F9679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="525" windowWidth="32400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2808,7 +2808,7 @@
         <v>44593</v>
       </c>
       <c r="C16" s="51">
-        <v>44631</v>
+        <v>44653</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>15</v>
@@ -2946,7 +2946,7 @@
         <v>44610</v>
       </c>
       <c r="C18" s="51">
-        <v>44631</v>
+        <v>44660</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>15</v>
@@ -3011,8 +3011,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="53">
-        <f>C18</f>
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="C19" s="51">
         <f>C9</f>
@@ -3081,10 +3080,10 @@
         <v>51</v>
       </c>
       <c r="B20" s="53">
-        <v>44636</v>
+        <v>44653</v>
       </c>
       <c r="C20" s="51">
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>15</v>
@@ -3150,7 +3149,7 @@
       </c>
       <c r="B21" s="53">
         <f>C20</f>
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="C21" s="51">
         <f>C9</f>

--- a/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
+++ b/EngineeringDesign/Engineering Design f21/construction-schedule-weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacdw\Documents\Spring-2022\EngineeringDesign\Engineering Design f21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87693E2-84BE-4460-9B0A-435EF9F9679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF5926-CE04-4613-9C9F-9BF1D0E8FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="525" windowWidth="32400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,8 +1440,8 @@
   </sheetPr>
   <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2670,7 @@
         <v>44564</v>
       </c>
       <c r="C14" s="51">
-        <v>44648</v>
+        <v>44666</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>15</v>
@@ -2808,7 +2808,7 @@
         <v>44593</v>
       </c>
       <c r="C16" s="51">
-        <v>44653</v>
+        <v>44666</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>15</v>
@@ -2946,7 +2946,7 @@
         <v>44610</v>
       </c>
       <c r="C18" s="51">
-        <v>44660</v>
+        <v>44666</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>15</v>
@@ -3083,7 +3083,7 @@
         <v>44653</v>
       </c>
       <c r="C20" s="51">
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>15</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B21" s="53">
         <f>C20</f>
-        <v>44662</v>
+        <v>44666</v>
       </c>
       <c r="C21" s="51">
         <f>C9</f>
